--- a/excel_files/safeguarding mexico.xlsx
+++ b/excel_files/safeguarding mexico.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edmun\Code\parenttext-mexico\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-mexico\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6FE660-01B7-414C-8506-E8AAB3C8362D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC0146-26AC-4BCC-941E-00921CBD9BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
     <sheet name="health" sheetId="2" r:id="rId2"/>
     <sheet name="mental_health" sheetId="3" r:id="rId3"/>
-    <sheet name="natural_disaster" sheetId="18" r:id="rId4"/>
+    <sheet name="natural_disasters" sheetId="18" r:id="rId4"/>
     <sheet name="violence" sheetId="5" r:id="rId5"/>
     <sheet name="drugs" sheetId="19" r:id="rId6"/>
     <sheet name="menu" sheetId="8" r:id="rId7"/>
@@ -25,13 +25,16 @@
     <sheet name="book" sheetId="10" r:id="rId10"/>
     <sheet name="review" sheetId="14" r:id="rId11"/>
     <sheet name="pause" sheetId="15" r:id="rId12"/>
+    <sheet name="start" sheetId="20" r:id="rId13"/>
+    <sheet name="stop" sheetId="21" r:id="rId14"/>
+    <sheet name="id" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1259">
   <si>
     <t>Section 1</t>
   </si>
@@ -3796,13 +3799,25 @@
   </si>
   <si>
     <t xml:space="preserve">Parar </t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>iniciar</t>
+  </si>
+  <si>
+    <t>DETENER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3856,6 +3871,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4080,7 +4102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4113,6 +4135,25 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4132,20 +4173,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4154,15 +4183,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4398,19 +4421,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -4430,20 +4453,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4465,20 +4488,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4497,19 +4520,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4806,16 +4829,16 @@
       <c r="F11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="26" t="s">
         <v>615</v>
       </c>
       <c r="K11" s="6"/>
@@ -5148,7 +5171,7 @@
       <c r="B19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="27">
         <v>911</v>
       </c>
       <c r="D19" s="17"/>
@@ -5191,7 +5214,7 @@
       <c r="B20" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="28">
         <v>911</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -11978,19 +12001,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -12010,20 +12033,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -12045,20 +12068,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -12077,19 +12100,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -13964,19 +13987,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -13996,20 +14019,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -14031,20 +14054,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -14063,19 +14086,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -15952,19 +15975,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -15984,20 +16007,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -16019,20 +16042,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -16051,19 +16074,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -16141,6 +16164,5933 @@
       <c r="F6" s="6" t="s">
         <v>1254</v>
       </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BAD3B-02B4-4E6D-BFE1-FFD228B8A292}">
+  <dimension ref="A1:AA1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD161CB-C278-4FAE-8942-A1DA623839C8}">
+  <dimension ref="A1:AA1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEED2C85-B41D-490E-AAA1-DD6CA6228318}">
+  <dimension ref="A1:AA1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -17944,19 +23894,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -17976,20 +23926,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -18011,20 +23961,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -18043,19 +23993,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -19846,19 +25796,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -19878,20 +25828,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -19913,20 +25863,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -19945,19 +25895,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -20083,7 +26033,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="29" t="s">
         <v>138</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -22099,8 +28049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55568597-A2FB-43A3-A17C-E63B3BAA679B}">
   <dimension ref="A1:AA942"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -22116,19 +28066,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -22147,21 +28097,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -22180,23 +28130,23 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="41"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -22215,19 +28165,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -22901,16 +28851,16 @@
       <c r="B20" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="32" t="s">
         <v>885</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="33" t="s">
         <v>887</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -23865,12 +29815,12 @@
     <row r="942" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -23898,19 +29848,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -23930,20 +29880,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -23965,20 +29915,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -23997,19 +29947,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -28195,7 +34145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8080BC-2F30-415D-8D3E-8FCE7CBB34E5}">
   <dimension ref="A1:AA968"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -28212,19 +34162,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>1119</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -28243,21 +34193,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -28276,23 +34226,23 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="41"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -28311,19 +34261,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -28977,7 +34927,7 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="34" t="s">
         <v>459</v>
       </c>
       <c r="G19" s="20"/>
@@ -29064,7 +35014,7 @@
       <c r="F21" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="34" t="s">
         <v>465</v>
       </c>
       <c r="H21" s="20"/>
@@ -30049,12 +35999,12 @@
       <c r="A45" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="35" t="s">
         <v>1230</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -30082,12 +36032,12 @@
       <c r="A46" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="35" t="s">
         <v>1230</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="20" t="s">
         <v>1231</v>
       </c>
@@ -31037,12 +36987,12 @@
     <row r="968" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -31054,7 +37004,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -31070,19 +37020,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -31102,20 +37052,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -31137,20 +37087,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -31169,19 +37119,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -33062,19 +39012,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -33094,20 +39044,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -33129,20 +39079,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -33161,19 +39111,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -35052,19 +41002,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -35084,20 +41034,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -35119,20 +41069,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -35151,19 +41101,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>

--- a/excel_files/safeguarding mexico.xlsx
+++ b/excel_files/safeguarding mexico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-mexico\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC0146-26AC-4BCC-941E-00921CBD9BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B67BA-875F-41D5-9129-1C5D8A8C8872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1258">
   <si>
     <t>Section 1</t>
   </si>
@@ -1963,9 +1963,6 @@
   </si>
   <si>
     <t>emergencia</t>
-  </si>
-  <si>
-    <t>ayuda</t>
   </si>
   <si>
     <t xml:space="preserve">urgente </t>
@@ -4404,8 +4401,8 @@
   </sheetPr>
   <dimension ref="A1:AA944"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -5220,20 +5217,17 @@
       <c r="D20" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>647</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -5304,22 +5298,22 @@
         <v>526</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5388,21 +5382,21 @@
         <v>526</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>655</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -5474,28 +5468,28 @@
         <v>526</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>665</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -5566,31 +5560,31 @@
         <v>526</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="1"/>
@@ -5658,27 +5652,27 @@
         <v>526</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>675</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>676</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="H30" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>681</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="1"/>
@@ -12172,16 +12166,16 @@
         <v>526</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>1243</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>1244</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>1245</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -14160,16 +14154,16 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1248</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1249</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16150,19 +16144,19 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>1253</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1254</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -18101,7 +18095,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -18133,7 +18127,7 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -20076,7 +20070,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -20109,7 +20103,7 @@
         <v>526</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -21901,7 +21895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEED2C85-B41D-490E-AAA1-DD6CA6228318}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -22052,7 +22046,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -22085,7 +22079,7 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -24071,29 +24065,29 @@
         <v>526</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>683</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
@@ -24161,31 +24155,31 @@
         <v>526</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="E8" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="1"/>
@@ -24253,29 +24247,29 @@
         <v>526</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>694</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>695</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>699</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>700</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
@@ -24343,31 +24337,31 @@
         <v>526</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="1"/>
@@ -24435,31 +24429,31 @@
         <v>526</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="H14" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -24525,24 +24519,24 @@
         <v>526</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>711</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>712</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -24609,10 +24603,10 @@
         <v>526</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>717</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>718</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -24623,16 +24617,16 @@
         <v>108</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -24695,26 +24689,26 @@
         <v>526</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -24783,23 +24777,23 @@
         <v>526</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>730</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>731</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>732</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -24869,28 +24863,28 @@
         <v>526</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>724</v>
-      </c>
       <c r="D24" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>736</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -24959,13 +24953,13 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>742</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -25973,31 +25967,31 @@
         <v>526</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>743</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>629</v>
@@ -26067,34 +26061,34 @@
         <v>526</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>753</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -26159,24 +26153,24 @@
         <v>526</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>761</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>762</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -26241,19 +26235,19 @@
         <v>526</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>769</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -26317,25 +26311,25 @@
         <v>526</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>775</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -26401,23 +26395,23 @@
         <v>526</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>776</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>777</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>778</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -26487,23 +26481,23 @@
         <v>526</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>783</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>785</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>786</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -26569,31 +26563,31 @@
         <v>526</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>794</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>795</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="1"/>
@@ -26659,32 +26653,32 @@
         <v>526</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>796</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>797</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>803</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -26747,23 +26741,23 @@
         <v>526</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>805</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>806</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>808</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>809</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26825,24 +26819,24 @@
         <v>526</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>813</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>814</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -26906,7 +26900,7 @@
         <v>629</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -26914,7 +26908,7 @@
         <v>631</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -26981,20 +26975,20 @@
         <v>526</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>817</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>804</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>818</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>819</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>820</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -27065,29 +27059,29 @@
         <v>526</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>822</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>826</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>827</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="1"/>
@@ -27149,31 +27143,31 @@
         <v>526</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>828</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="F34" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>836</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="1"/>
@@ -27235,16 +27229,16 @@
         <v>526</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>837</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>838</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -28067,7 +28061,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -28243,27 +28237,27 @@
         <v>526</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>840</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>841</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>845</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
@@ -28333,28 +28327,28 @@
         <v>526</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>852</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>853</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -28429,25 +28423,25 @@
         <v>526</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>860</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -28513,15 +28507,15 @@
         <v>526</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>861</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>862</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -28597,31 +28591,31 @@
         <v>526</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>864</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>865</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>216</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>866</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="6" t="s">
         <v>870</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>871</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -28685,23 +28679,23 @@
         <v>526</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>873</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>874</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>876</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>877</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -28767,27 +28761,27 @@
         <v>526</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>879</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="1"/>
@@ -28849,28 +28843,28 @@
         <v>526</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="E20" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G20" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>889</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>890</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -30025,23 +30019,23 @@
         <v>526</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>893</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>896</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -30113,20 +30107,20 @@
         <v>526</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>893</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -30197,31 +30191,31 @@
         <v>526</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>905</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>906</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
@@ -30285,26 +30279,26 @@
         <v>526</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>908</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>909</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>912</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>913</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -30373,25 +30367,25 @@
         <v>526</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>917</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>918</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -30461,25 +30455,25 @@
         <v>526</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>920</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -30549,23 +30543,23 @@
         <v>526</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>927</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>928</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>930</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>931</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -30633,26 +30627,26 @@
         <v>526</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>933</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>934</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>937</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>938</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -30717,25 +30711,25 @@
         <v>526</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="H22" s="6" t="s">
         <v>942</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>943</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -30799,29 +30793,29 @@
         <v>526</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>944</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>945</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>948</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>949</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="1"/>
@@ -30883,24 +30877,24 @@
         <v>526</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>950</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>951</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>953</v>
-      </c>
       <c r="I26" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -30973,31 +30967,31 @@
         <v>526</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>961</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>962</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="1"/>
@@ -31067,20 +31061,20 @@
         <v>526</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>964</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>966</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>967</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -31153,34 +31147,34 @@
         <v>526</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>973</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>974</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -31249,31 +31243,31 @@
         <v>526</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>975</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>976</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="E34" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>975</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>981</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>982</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="1"/>
@@ -31343,32 +31337,32 @@
         <v>526</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>983</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>984</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>987</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>988</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>990</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>991</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -31435,30 +31429,30 @@
         <v>526</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>992</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>993</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>994</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>995</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>996</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="6" t="s">
         <v>998</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>999</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -31521,18 +31515,18 @@
         <v>526</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -31595,19 +31589,19 @@
         <v>526</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G42" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>1004</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>1005</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -31671,21 +31665,21 @@
         <v>526</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>1006</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>1007</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="17"/>
       <c r="F44" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="H44" s="6" t="s">
         <v>1009</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>1010</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -31755,31 +31749,31 @@
         <v>526</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>1012</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="F46" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>1017</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>1018</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="1"/>
@@ -31847,23 +31841,23 @@
         <v>526</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>1019</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>1020</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>1021</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>1023</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>1024</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -31931,31 +31925,31 @@
         <v>526</v>
       </c>
       <c r="B50" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>1026</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>1027</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="F50" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>1033</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="1"/>
@@ -32023,28 +32017,28 @@
         <v>526</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>1035</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>1036</v>
-      </c>
       <c r="F52" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="I52" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>1033</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -32113,28 +32107,28 @@
         <v>526</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>1038</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>1039</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="F54" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>1043</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>1044</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -32203,23 +32197,23 @@
         <v>526</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>1046</v>
-      </c>
       <c r="D56" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>1048</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>1049</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -32289,26 +32283,26 @@
         <v>526</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="D58" s="18" t="s">
         <v>1051</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>1052</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>1055</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>1056</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -32377,22 +32371,22 @@
         <v>526</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>1057</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>1058</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>1059</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="F60" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>1061</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>1062</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -32465,23 +32459,23 @@
         <v>526</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>1063</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D62" s="18" t="s">
         <v>1064</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>1065</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>1066</v>
       </c>
-      <c r="G62" s="19" t="s">
-        <v>1067</v>
-      </c>
       <c r="H62" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -32551,31 +32545,31 @@
         <v>526</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D64" s="18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>1068</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="F64" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>1069</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>1070</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="1"/>
@@ -32645,34 +32639,34 @@
         <v>526</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>1071</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>1073</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="F66" s="19" t="s">
         <v>1074</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>1075</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>400</v>
       </c>
       <c r="H66" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>1076</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="J66" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>1078</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>1079</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -32737,25 +32731,25 @@
         <v>526</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="18" t="s">
         <v>1082</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="F68" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>1085</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>1086</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -32825,28 +32819,28 @@
         <v>526</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>1087</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>1088</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E70" s="17" t="s">
+      <c r="F70" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>1091</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>1092</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -32913,28 +32907,28 @@
         <v>526</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="F72" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>1098</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>1099</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -33001,34 +32995,34 @@
         <v>526</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="D74" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="E74" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="F74" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="K74" s="6" t="s">
         <v>1108</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>1109</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -33091,23 +33085,23 @@
         <v>526</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>1110</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>1111</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>1113</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>1114</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -33171,18 +33165,18 @@
         <v>526</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>1115</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>1116</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>1117</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>1118</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -34163,7 +34157,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -34335,27 +34329,27 @@
         <v>526</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1120</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>1121</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>1122</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>1123</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>1124</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>1125</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>1126</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>474</v>
@@ -34423,32 +34417,32 @@
         <v>526</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1127</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>1128</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>1129</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>1130</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>1132</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>1133</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>1134</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>1135</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -34517,10 +34511,10 @@
         <v>526</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1136</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>1137</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
@@ -34528,19 +34522,19 @@
         <v>440</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>1138</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>1139</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>1140</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>1141</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>1142</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -34611,34 +34605,34 @@
         <v>526</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1143</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>1144</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="21" t="s">
         <v>1146</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>1147</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>1148</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>1149</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>1150</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="K12" s="20" t="s">
         <v>1151</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>1152</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -34707,25 +34701,25 @@
         <v>526</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1153</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>1154</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>1155</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>1156</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>1157</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>1158</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -34791,18 +34785,18 @@
         <v>526</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1159</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>1160</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>1161</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>1162</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -34876,26 +34870,26 @@
         <v>453</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>1163</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>1164</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>1166</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>1167</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="20" t="s">
         <v>1168</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>1169</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
@@ -34957,24 +34951,24 @@
         <v>526</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="I20" s="20" t="s">
         <v>1174</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>1175</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -35046,31 +35040,31 @@
         <v>460</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>1176</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>1177</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="20" t="s">
         <v>1178</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>1180</v>
-      </c>
       <c r="H22" s="20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>465</v>
       </c>
       <c r="J22" s="20" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>1181</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>1182</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -35145,19 +35139,19 @@
         <v>526</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1183</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>1184</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>1185</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>469</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -35232,7 +35226,7 @@
         <v>471</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -35315,22 +35309,22 @@
         <v>526</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>1189</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="G28" s="20" t="s">
         <v>1190</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>1191</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>482</v>
@@ -35339,7 +35333,7 @@
         <v>483</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>562</v>
@@ -35413,31 +35407,31 @@
         <v>526</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>485</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>1194</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="F30" s="20" t="s">
         <v>1195</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>1196</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>488</v>
       </c>
       <c r="H30" s="20" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I30" s="20" t="s">
         <v>1197</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>1198</v>
-      </c>
       <c r="J30" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="1"/>
@@ -35503,28 +35497,28 @@
         <v>526</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>492</v>
       </c>
       <c r="D32" s="18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>1200</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="20" t="s">
         <v>1201</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>1202</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="H32" s="20" t="s">
         <v>1203</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="I32" s="20" t="s">
         <v>1204</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>1205</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -35585,17 +35579,17 @@
         <v>526</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>1206</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>1207</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>1208</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -35659,16 +35653,16 @@
         <v>526</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>1211</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>1212</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -35739,7 +35733,7 @@
         <v>526</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>499</v>
@@ -35811,30 +35805,30 @@
         <v>526</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>1214</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1215</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>1216</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="H40" s="24" t="s">
         <v>1217</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="I40" s="24" t="s">
         <v>1218</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="J40" s="24" t="s">
         <v>1219</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="K40" s="24" t="s">
         <v>1220</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>1221</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -35889,21 +35883,21 @@
         <v>526</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>1222</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1223</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="24" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>1224</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="H42" s="24" t="s">
         <v>1225</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>1226</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -35930,7 +35924,7 @@
         <v>128</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -35963,16 +35957,16 @@
         <v>526</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="24" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -36000,7 +35994,7 @@
         <v>128</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -36033,13 +36027,13 @@
         <v>526</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="20" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -37197,10 +37191,10 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1232</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1233</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>510</v>
@@ -39187,16 +39181,16 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1237</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -41181,16 +41175,16 @@
         <v>526</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1240</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1241</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>

--- a/excel_files/safeguarding mexico.xlsx
+++ b/excel_files/safeguarding mexico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-mexico\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B67BA-875F-41D5-9129-1C5D8A8C8872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE7B0B-9CD4-4E3E-AC9B-F02124B603C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1257">
   <si>
     <t>Section 1</t>
   </si>
@@ -1609,9 +1609,6 @@
   </si>
   <si>
     <t>Grow</t>
-  </si>
-  <si>
-    <t>Stop</t>
   </si>
   <si>
     <t>Local Language</t>
@@ -4401,7 +4398,7 @@
   </sheetPr>
   <dimension ref="A1:AA944"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4419,7 +4416,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -4596,28 +4593,28 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4682,35 +4679,35 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>603</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>604</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>20</v>
@@ -4779,16 +4776,16 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>614</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -4836,7 +4833,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="1"/>
@@ -4858,31 +4855,31 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -4944,7 +4941,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>30</v>
@@ -4955,10 +4952,10 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5028,34 +5025,34 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="1"/>
@@ -5118,29 +5115,29 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>636</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>637</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -5183,7 +5180,7 @@
         <v>49</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -5206,28 +5203,28 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C20" s="28">
         <v>911</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -5272,7 +5269,7 @@
         <v>55</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5295,25 +5292,25 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5379,24 +5376,24 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>653</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>654</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -5465,31 +5462,31 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -5527,13 +5524,13 @@
         <v>376</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -5557,34 +5554,34 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="1"/>
@@ -5619,13 +5616,13 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -5649,30 +5646,30 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>674</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>675</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="H30" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="1"/>
@@ -11996,7 +11993,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -12129,13 +12126,13 @@
         <v>128</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>585</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -12163,19 +12160,19 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>1243</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>1244</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -13982,7 +13979,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -14115,16 +14112,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -14151,19 +14148,19 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1247</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1248</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -15953,7 +15950,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -15970,7 +15967,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -16103,20 +16100,18 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -16141,22 +16136,22 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1253</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -18095,7 +18090,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -18124,10 +18119,10 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -19919,8 +19914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD161CB-C278-4FAE-8942-A1DA623839C8}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -20070,7 +20065,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -20100,10 +20095,10 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -22046,7 +22041,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -22076,10 +22071,10 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -24062,32 +24057,32 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>682</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>683</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
@@ -24122,13 +24117,13 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -24152,34 +24147,34 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="E8" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="1"/>
@@ -24244,32 +24239,32 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>693</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>694</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
@@ -24310,7 +24305,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -24334,34 +24329,34 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>700</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>706</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="1"/>
@@ -24426,34 +24421,34 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="H14" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>709</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -24516,27 +24511,27 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>710</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>711</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>715</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -24576,7 +24571,7 @@
         <v>108</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -24600,13 +24595,13 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>716</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>717</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -24617,16 +24612,16 @@
         <v>108</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -24686,29 +24681,29 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>722</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>723</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>724</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -24774,26 +24769,26 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>729</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>730</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>731</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -24860,31 +24855,31 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>722</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>723</v>
-      </c>
       <c r="D24" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>738</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -24942,7 +24937,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>125</v>
@@ -24953,13 +24948,13 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -25964,37 +25959,37 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>749</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -26058,37 +26053,37 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>758</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>759</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -26150,27 +26145,27 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>760</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>761</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>764</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -26202,13 +26197,13 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -26232,22 +26227,22 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>768</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -26280,10 +26275,10 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -26308,28 +26303,28 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>773</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>774</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -26392,26 +26387,26 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>776</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>777</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>779</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -26455,7 +26450,7 @@
         <v>157</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -26478,26 +26473,26 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>782</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -26560,34 +26555,34 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="1"/>
@@ -26650,35 +26645,35 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>795</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>796</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>802</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -26738,26 +26733,26 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>804</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>805</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>808</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26816,27 +26811,27 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>812</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>813</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -26894,21 +26889,21 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -26972,23 +26967,23 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>816</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>817</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>819</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -27056,32 +27051,32 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>821</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>825</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>826</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="1"/>
@@ -27140,34 +27135,34 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>828</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="F34" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>834</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>835</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="1"/>
@@ -27226,19 +27221,19 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>836</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>837</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -28061,7 +28056,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -28234,30 +28229,30 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>839</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>840</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>844</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
@@ -28324,31 +28319,31 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>845</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="19" t="s">
         <v>848</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>851</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>852</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -28395,10 +28390,10 @@
         <v>209</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="1"/>
@@ -28420,28 +28415,28 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>859</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -28504,18 +28499,18 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>860</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>861</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -28588,34 +28583,34 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>863</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>864</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>216</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>865</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>866</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="6" t="s">
         <v>869</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>870</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -28676,26 +28671,26 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>872</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>873</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -28758,30 +28753,30 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>877</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>878</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>880</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>881</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="1"/>
@@ -28840,31 +28835,31 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="E20" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G20" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>888</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>889</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -30016,26 +30011,26 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>891</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>892</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>894</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>895</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -30104,23 +30099,23 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>891</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>892</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -30188,34 +30183,34 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>905</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
@@ -30276,29 +30271,29 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>907</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>908</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>912</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -30364,28 +30359,28 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>916</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>917</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -30452,28 +30447,28 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>923</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>924</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -30540,26 +30535,26 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>926</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>927</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -30624,29 +30619,29 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>932</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>933</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>936</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>937</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -30708,28 +30703,28 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>915</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="19" t="s">
         <v>940</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="H22" s="6" t="s">
         <v>941</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>942</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -30790,32 +30785,32 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>943</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>944</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>948</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="1"/>
@@ -30874,27 +30869,27 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>949</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>950</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>952</v>
-      </c>
       <c r="I26" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -30964,34 +30959,34 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>953</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>960</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>961</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="1"/>
@@ -31058,23 +31053,23 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>963</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>964</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>965</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>966</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -31114,13 +31109,13 @@
         <v>309</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -31144,37 +31139,37 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>973</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -31240,34 +31235,34 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>974</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>975</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="E34" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>974</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>981</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="1"/>
@@ -31334,35 +31329,35 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>982</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>983</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>984</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>986</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>987</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>989</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>990</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -31426,33 +31421,33 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>992</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>993</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>994</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>995</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>998</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -31512,21 +31507,21 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -31586,22 +31581,22 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G42" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>1003</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>1004</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -31662,24 +31657,24 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>1005</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>1006</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="17"/>
       <c r="F44" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="H44" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>1009</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -31746,34 +31741,34 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>1012</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="F46" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>1017</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="1"/>
@@ -31838,26 +31833,26 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>1019</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>1020</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>1023</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -31922,34 +31917,34 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B50" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>1026</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="F50" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>1031</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>1032</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="1"/>
@@ -32014,31 +32009,31 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>1034</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>1035</v>
-      </c>
       <c r="F52" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="I52" s="6" t="s">
         <v>1031</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>1032</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -32104,31 +32099,31 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>1036</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="F54" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>1042</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>1043</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -32194,26 +32189,26 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>1044</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>1045</v>
-      </c>
       <c r="D56" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>1047</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>1048</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -32246,17 +32241,17 @@
         <v>376</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -32280,29 +32275,29 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="D58" s="18" t="s">
         <v>1050</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>1051</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>1054</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>1055</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -32368,25 +32363,25 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>1056</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>1057</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>1058</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="F60" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>1060</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>1061</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -32456,26 +32451,26 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>1062</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D62" s="18" t="s">
         <v>1063</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>1064</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>1065</v>
       </c>
-      <c r="G62" s="19" t="s">
-        <v>1066</v>
-      </c>
       <c r="H62" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -32542,34 +32537,34 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D64" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>1067</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="F64" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>1068</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>1069</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="1"/>
@@ -32597,7 +32592,7 @@
         <v>396</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>397</v>
@@ -32636,37 +32631,37 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>1070</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>1071</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>1072</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="F66" s="19" t="s">
         <v>1073</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>1074</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>400</v>
       </c>
       <c r="H66" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="J66" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>1077</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>1078</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -32728,28 +32723,28 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>1079</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="F68" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>1084</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>1085</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -32816,31 +32811,31 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>1086</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>1087</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E70" s="17" t="s">
+      <c r="F70" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>1090</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>1091</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -32904,31 +32899,31 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>1093</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="F72" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>1097</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>1098</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -32992,37 +32987,37 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="D74" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="E74" s="13" t="s">
         <v>1101</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="F74" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="K74" s="6" t="s">
         <v>1107</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>1108</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -33082,26 +33077,26 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>1109</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>1110</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>1112</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>1113</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -33162,21 +33157,21 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>1114</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>1115</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>1116</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>1117</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -34139,7 +34134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8080BC-2F30-415D-8D3E-8FCE7CBB34E5}">
   <dimension ref="A1:AA968"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -34157,7 +34152,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -34326,30 +34321,30 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1119</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>1120</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>1121</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>1122</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>1123</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>1124</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>1125</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>474</v>
@@ -34386,10 +34381,10 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>543</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>544</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -34414,35 +34409,35 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1126</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>1127</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>1128</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>1129</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="20" t="s">
         <v>1130</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>1132</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>1133</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>1134</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -34508,13 +34503,13 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1135</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>1136</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
@@ -34522,19 +34517,19 @@
         <v>440</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>1138</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>1139</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>1140</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>1141</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -34576,10 +34571,10 @@
         <v>448</v>
       </c>
       <c r="H11" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>545</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>546</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -34602,37 +34597,37 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1142</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>1143</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>1144</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="21" t="s">
         <v>1145</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>1146</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>1147</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>1148</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>1149</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="K12" s="20" t="s">
         <v>1150</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>1151</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -34664,19 +34659,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>550</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>551</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="1"/>
@@ -34698,28 +34693,28 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1152</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>1153</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>1154</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>1155</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>1156</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>1157</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -34753,10 +34748,10 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -34782,21 +34777,21 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1158</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>1159</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>1160</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>1161</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -34836,10 +34831,10 @@
         <v>456</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>553</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>554</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -34864,32 +34859,32 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>453</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>1162</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>1163</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>1164</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>1166</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="20" t="s">
         <v>1167</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>1168</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
@@ -34948,27 +34943,27 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="I20" s="20" t="s">
         <v>1173</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>1174</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -35034,37 +35029,37 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>460</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>1175</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>1176</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="20" t="s">
         <v>1178</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>1179</v>
-      </c>
       <c r="H22" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>465</v>
       </c>
       <c r="J22" s="20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>1180</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>1181</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -35103,19 +35098,19 @@
         <v>470</v>
       </c>
       <c r="G23" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="I23" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="J23" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="20" t="s">
         <v>558</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>559</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -35136,22 +35131,22 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1182</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>1183</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>1184</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>469</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -35195,7 +35190,7 @@
         <v>475</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -35220,13 +35215,13 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>471</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -35282,10 +35277,10 @@
         <v>483</v>
       </c>
       <c r="J27" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="K27" s="20" t="s">
         <v>561</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>562</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -35306,25 +35301,25 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>1188</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="G28" s="20" t="s">
         <v>1189</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>1190</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>482</v>
@@ -35333,10 +35328,10 @@
         <v>483</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -35404,34 +35399,34 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>485</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>1193</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="F30" s="20" t="s">
         <v>1194</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>1195</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>488</v>
       </c>
       <c r="H30" s="20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I30" s="20" t="s">
         <v>1196</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>1197</v>
-      </c>
       <c r="J30" s="20" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="1"/>
@@ -35494,31 +35489,31 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>492</v>
       </c>
       <c r="D32" s="18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>1199</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="20" t="s">
         <v>1200</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>1201</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="H32" s="20" t="s">
         <v>1202</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="I32" s="20" t="s">
         <v>1203</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>1204</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -35576,20 +35571,20 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>1205</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>1206</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>1207</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -35624,7 +35619,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
@@ -35650,19 +35645,19 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>1210</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>1211</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -35699,13 +35694,13 @@
         <v>500</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="G37" s="20" t="s">
         <v>565</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>566</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
@@ -35730,10 +35725,10 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>499</v>
@@ -35802,33 +35797,33 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>1213</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1214</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="24" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>1215</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="H40" s="24" t="s">
         <v>1216</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="I40" s="24" t="s">
         <v>1217</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="J40" s="24" t="s">
         <v>1218</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="K40" s="24" t="s">
         <v>1219</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>1220</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -35880,24 +35875,24 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>1221</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1222</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="24" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>1223</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="H42" s="24" t="s">
         <v>1224</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>1225</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -35924,7 +35919,7 @@
         <v>128</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -35954,19 +35949,19 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="24" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -35994,7 +35989,7 @@
         <v>128</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -36024,16 +36019,16 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -36997,7 +36992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -37188,13 +37183,13 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1231</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1232</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>510</v>
@@ -39178,19 +39173,19 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1235</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1236</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -41172,19 +41167,19 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1239</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1240</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>

--- a/excel_files/safeguarding mexico.xlsx
+++ b/excel_files/safeguarding mexico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-mexico\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE7B0B-9CD4-4E3E-AC9B-F02124B603C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA8C82-AB31-4887-B543-8A4DBA01735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1260">
   <si>
     <t>Section 1</t>
   </si>
@@ -3805,6 +3805,15 @@
   </si>
   <si>
     <t>DETENER</t>
+  </si>
+  <si>
+    <t>familia</t>
+  </si>
+  <si>
+    <t>formando</t>
+  </si>
+  <si>
+    <t>afectiva</t>
   </si>
 </sst>
 </file>
@@ -3874,7 +3883,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3923,8 +3932,14 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -4092,11 +4107,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4176,6 +4206,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17939,8 +17972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BAD3B-02B4-4E6D-BFE1-FFD228B8A292}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -18054,7 +18087,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
@@ -18085,15 +18118,22 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="50" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>1259</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -18117,16 +18157,22 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="50" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>1259</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -18153,7 +18199,6 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -19914,7 +19959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD161CB-C278-4FAE-8942-A1DA623839C8}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/excel_files/safeguarding mexico.xlsx
+++ b/excel_files/safeguarding mexico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-mexico\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA8C82-AB31-4887-B543-8A4DBA01735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7650F7-CCCC-446C-9A5C-34FF0503F5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1261">
   <si>
     <t>Section 1</t>
   </si>
@@ -2022,9 +2022,6 @@
     <t>sigiendo</t>
   </si>
   <si>
-    <t>segido/segido</t>
-  </si>
-  <si>
     <t>siguendo</t>
   </si>
   <si>
@@ -2079,9 +2076,6 @@
     <t>vomitar</t>
   </si>
   <si>
-    <t>vomitado/vomitada</t>
-  </si>
-  <si>
     <t>vomitando</t>
   </si>
   <si>
@@ -2112,9 +2106,6 @@
     <t>enfermedad</t>
   </si>
   <si>
-    <t xml:space="preserve">enfermedad de transmisión sexual </t>
-  </si>
-  <si>
     <t>enfermedades</t>
   </si>
   <si>
@@ -2133,9 +2124,6 @@
     <t>enfermmedades</t>
   </si>
   <si>
-    <t>enfermo/ enferma</t>
-  </si>
-  <si>
     <t>enfermizo</t>
   </si>
   <si>
@@ -2160,9 +2148,6 @@
     <t>dolencia</t>
   </si>
   <si>
-    <t>enfermito/enfermita</t>
-  </si>
-  <si>
     <t>salud</t>
   </si>
   <si>
@@ -2178,9 +2163,6 @@
     <t>sano</t>
   </si>
   <si>
-    <t>sanito/sanita</t>
-  </si>
-  <si>
     <t>hospital</t>
   </si>
   <si>
@@ -2205,9 +2187,6 @@
     <t>abortar</t>
   </si>
   <si>
-    <t>aborto espontáneo</t>
-  </si>
-  <si>
     <t>abrto</t>
   </si>
   <si>
@@ -2217,9 +2196,6 @@
     <t>avortar</t>
   </si>
   <si>
-    <t>aborto natural</t>
-  </si>
-  <si>
     <t>embarazada</t>
   </si>
   <si>
@@ -2340,12 +2316,6 @@
     <t>terpia</t>
   </si>
   <si>
-    <t>psicólogo/psicóloga</t>
-  </si>
-  <si>
-    <t>sicóloga/sicólogo</t>
-  </si>
-  <si>
     <t>terapeuta</t>
   </si>
   <si>
@@ -2355,9 +2325,6 @@
     <t>doctor</t>
   </si>
   <si>
-    <t>sicologo/sicologa</t>
-  </si>
-  <si>
     <t>suicidio</t>
   </si>
   <si>
@@ -2751,9 +2718,6 @@
     <t>abusiva</t>
   </si>
   <si>
-    <t>violento/violenta</t>
-  </si>
-  <si>
     <t>violencia</t>
   </si>
   <si>
@@ -2814,18 +2778,12 @@
     <t>moretones</t>
   </si>
   <si>
-    <t>con moretones</t>
-  </si>
-  <si>
     <t>moradura</t>
   </si>
   <si>
     <t>moretn</t>
   </si>
   <si>
-    <t>marca en la piel</t>
-  </si>
-  <si>
     <t>herida</t>
   </si>
   <si>
@@ -2934,18 +2892,12 @@
     <t>vofetada</t>
   </si>
   <si>
-    <t>puñetazo/golpear</t>
-  </si>
-  <si>
     <t>golpeado</t>
   </si>
   <si>
     <t>punetazo</t>
   </si>
   <si>
-    <t>Colpear</t>
-  </si>
-  <si>
     <t>Golpar</t>
   </si>
   <si>
@@ -2961,9 +2913,6 @@
     <t>matando</t>
   </si>
   <si>
-    <t xml:space="preserve">mató a </t>
-  </si>
-  <si>
     <t>matarr</t>
   </si>
   <si>
@@ -3051,9 +3000,6 @@
     <t>cinturón</t>
   </si>
   <si>
-    <t>pegar con cinturón</t>
-  </si>
-  <si>
     <t>cinto</t>
   </si>
   <si>
@@ -3096,9 +3042,6 @@
     <t>gritó</t>
   </si>
   <si>
-    <t>alzó la voz</t>
-  </si>
-  <si>
     <t>gitar</t>
   </si>
   <si>
@@ -3814,6 +3757,66 @@
   </si>
   <si>
     <t>afectiva</t>
+  </si>
+  <si>
+    <t>sanito</t>
+  </si>
+  <si>
+    <t>sanita</t>
+  </si>
+  <si>
+    <t>enfermito</t>
+  </si>
+  <si>
+    <t>enfermita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmisión sexual </t>
+  </si>
+  <si>
+    <t>enferma</t>
+  </si>
+  <si>
+    <t>psicóloga</t>
+  </si>
+  <si>
+    <t>psicólogo</t>
+  </si>
+  <si>
+    <t>sicóloga</t>
+  </si>
+  <si>
+    <t>sicólogo</t>
+  </si>
+  <si>
+    <t>sicologo</t>
+  </si>
+  <si>
+    <t>sicologa</t>
+  </si>
+  <si>
+    <t>violenta</t>
+  </si>
+  <si>
+    <t>violento</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>puñetazo</t>
+  </si>
+  <si>
+    <t>mató</t>
+  </si>
+  <si>
+    <t>alzó voz</t>
+  </si>
+  <si>
+    <t>segido</t>
+  </si>
+  <si>
+    <t>segida</t>
   </si>
 </sst>
 </file>
@@ -4178,6 +4181,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4206,9 +4212,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4431,8 +4434,8 @@
   </sheetPr>
   <dimension ref="A1:AA944"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4448,19 +4451,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -4480,20 +4483,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4515,20 +4518,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4547,19 +4550,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -5516,12 +5519,14 @@
         <v>661</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>1260</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5590,31 +5595,31 @@
         <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="1"/>
@@ -5682,27 +5687,27 @@
         <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>673</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>674</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="H30" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>679</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="1"/>
@@ -12025,19 +12030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -12057,20 +12062,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -12092,20 +12097,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -12124,19 +12129,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -12196,16 +12201,16 @@
         <v>525</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1241</v>
+        <v>1222</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1242</v>
+        <v>1223</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1243</v>
+        <v>1224</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -14011,19 +14016,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -14043,20 +14048,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -14078,20 +14083,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -14110,19 +14115,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -14184,16 +14189,16 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1244</v>
+        <v>1225</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1245</v>
+        <v>1226</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1246</v>
+        <v>1227</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1247</v>
+        <v>1228</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -15999,19 +16004,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -16031,20 +16036,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -16066,20 +16071,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -16098,19 +16103,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -16172,19 +16177,19 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1248</v>
+        <v>1229</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1249</v>
+        <v>1230</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1250</v>
+        <v>1231</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1252</v>
+        <v>1233</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -17972,8 +17977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BAD3B-02B4-4E6D-BFE1-FFD228B8A292}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -17989,19 +17994,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -18021,20 +18026,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -18056,20 +18061,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -18088,19 +18093,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -18123,18 +18128,20 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>1236</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>708</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -18162,18 +18169,20 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>1236</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>708</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -19976,19 +19985,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -20008,20 +20017,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -20043,20 +20052,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -20075,19 +20084,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -20110,7 +20119,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1253</v>
+        <v>1234</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -20143,7 +20152,7 @@
         <v>525</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>1256</v>
+        <v>1237</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -21952,19 +21961,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -21984,20 +21993,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -22019,20 +22028,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -22051,19 +22060,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -22086,7 +22095,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -22119,7 +22128,7 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -23911,8 +23920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA964"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -23928,19 +23937,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -23960,20 +23969,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -23995,20 +24004,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -24027,19 +24036,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -24105,29 +24114,31 @@
         <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>687</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
@@ -24195,31 +24206,31 @@
         <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="F8" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>687</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="1"/>
@@ -24287,29 +24298,29 @@
         <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>692</v>
+        <v>1245</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
@@ -24377,33 +24388,35 @@
         <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="I12" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="J12" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>1246</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -24469,33 +24482,35 @@
         <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="K14" s="6"/>
+        <v>1243</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1244</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -24559,24 +24574,24 @@
         <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="6" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>713</v>
+        <v>1241</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>714</v>
+        <v>1242</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -24643,10 +24658,10 @@
         <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -24657,16 +24672,16 @@
         <v>108</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -24729,27 +24744,23 @@
         <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>723</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="6" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>727</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="1"/>
@@ -24817,23 +24828,23 @@
         <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -24903,28 +24914,28 @@
         <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -24993,13 +25004,13 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -25813,8 +25824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -25830,19 +25841,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -25862,20 +25873,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -25897,20 +25908,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -25929,19 +25940,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -26007,31 +26018,31 @@
         <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>628</v>
@@ -26101,34 +26112,34 @@
         <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="K8" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>758</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -26193,24 +26204,24 @@
         <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="19" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -26275,19 +26286,19 @@
         <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="6" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -26351,25 +26362,31 @@
         <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>768</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+        <v>1248</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1251</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>769</v>
+        <v>1249</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>773</v>
+        <v>1252</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -26435,23 +26452,23 @@
         <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="6" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -26521,23 +26538,23 @@
         <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -26603,31 +26620,31 @@
         <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="1"/>
@@ -26693,32 +26710,32 @@
         <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -26781,23 +26798,23 @@
         <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26859,24 +26876,24 @@
         <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -26940,7 +26957,7 @@
         <v>628</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -26948,7 +26965,7 @@
         <v>630</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -27015,20 +27032,20 @@
         <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -27099,29 +27116,29 @@
         <v>525</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="6" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="1"/>
@@ -27183,31 +27200,31 @@
         <v>525</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="1"/>
@@ -27269,16 +27286,16 @@
         <v>525</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="6" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -28100,19 +28117,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>837</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="A1" s="41" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -28132,20 +28149,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="46"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -28167,20 +28184,20 @@
       <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="49" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="46"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -28199,19 +28216,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="46"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -28277,27 +28294,27 @@
         <v>525</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="19" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
@@ -28367,28 +28384,28 @@
         <v>525</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -28463,25 +28480,25 @@
         <v>525</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -28547,15 +28564,15 @@
         <v>525</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -28631,31 +28648,31 @@
         <v>525</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>216</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -28719,23 +28736,23 @@
         <v>525</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -28801,27 +28818,27 @@
         <v>525</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="19" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="1"/>
@@ -28883,28 +28900,28 @@
         <v>525</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -29865,8 +29882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -29882,19 +29899,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -29914,20 +29931,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -29949,20 +29966,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -29981,19 +29998,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -30059,23 +30076,23 @@
         <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -30147,20 +30164,20 @@
         <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="19" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -30231,31 +30248,31 @@
         <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
@@ -30319,26 +30336,28 @@
         <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>905</v>
+        <v>1254</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>907</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>895</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1253</v>
+      </c>
       <c r="F12" s="6" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -30407,25 +30426,25 @@
         <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -30495,25 +30514,25 @@
         <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -30583,23 +30602,23 @@
         <v>525</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>929</v>
+        <v>1255</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -30667,26 +30686,26 @@
         <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="19" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -30751,25 +30770,25 @@
         <v>525</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -30833,29 +30852,29 @@
         <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>947</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="1"/>
@@ -30917,24 +30936,24 @@
         <v>525</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="6" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -31007,31 +31026,31 @@
         <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="1"/>
@@ -31101,20 +31120,20 @@
         <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="6" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -31187,34 +31206,34 @@
         <v>525</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>966</v>
+        <v>1256</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>969</v>
+        <v>878</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -31283,31 +31302,31 @@
         <v>525</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>975</v>
+        <v>1257</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="1"/>
@@ -31377,32 +31396,32 @@
         <v>525</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -31469,30 +31488,30 @@
         <v>525</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="6" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -31555,18 +31574,18 @@
         <v>525</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="19" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -31629,19 +31648,19 @@
         <v>525</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="19" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -31705,21 +31724,21 @@
         <v>525</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>1005</v>
+        <v>883</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="17"/>
       <c r="F44" s="19" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -31789,31 +31808,31 @@
         <v>525</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="1"/>
@@ -31881,23 +31900,23 @@
         <v>525</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="6" t="s">
-        <v>1020</v>
+        <v>1258</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -31965,31 +31984,31 @@
         <v>525</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="1"/>
@@ -32057,28 +32076,28 @@
         <v>525</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -32147,28 +32166,28 @@
         <v>525</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -32237,23 +32256,23 @@
         <v>525</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -32323,26 +32342,26 @@
         <v>525</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="6" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -32411,22 +32430,22 @@
         <v>525</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -32499,23 +32518,23 @@
         <v>525</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="6" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -32585,31 +32604,31 @@
         <v>525</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="1"/>
@@ -32679,34 +32698,34 @@
         <v>525</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>400</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -32771,25 +32790,25 @@
         <v>525</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -32859,28 +32878,28 @@
         <v>525</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -32947,28 +32966,28 @@
         <v>525</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -33035,34 +33054,34 @@
         <v>525</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -33125,23 +33144,23 @@
         <v>525</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>653</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="6" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -33205,18 +33224,18 @@
         <v>525</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -34196,19 +34215,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="A1" s="41" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -34228,20 +34247,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="46"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -34263,20 +34282,20 @@
       <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="49" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="46"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -34295,19 +34314,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="46"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -34369,27 +34388,27 @@
         <v>525</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="20" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>474</v>
@@ -34457,32 +34476,32 @@
         <v>525</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="20" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -34551,10 +34570,10 @@
         <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
@@ -34562,19 +34581,19 @@
         <v>440</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -34645,34 +34664,34 @@
         <v>525</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>1145</v>
+        <v>1126</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -34741,25 +34760,25 @@
         <v>525</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1152</v>
+        <v>1133</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>1154</v>
+        <v>1135</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>1155</v>
+        <v>1136</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -34825,18 +34844,18 @@
         <v>525</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>1158</v>
+        <v>1139</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="20" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -34910,26 +34929,26 @@
         <v>453</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>1167</v>
+        <v>1148</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
@@ -34991,24 +35010,24 @@
         <v>525</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1168</v>
+        <v>1149</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="20" t="s">
-        <v>1170</v>
+        <v>1151</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>1172</v>
+        <v>1153</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -35080,31 +35099,31 @@
         <v>460</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1174</v>
+        <v>1155</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>1176</v>
+        <v>1157</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>465</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>1179</v>
+        <v>1160</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>1180</v>
+        <v>1161</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -35179,19 +35198,19 @@
         <v>525</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>1181</v>
+        <v>1162</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1183</v>
+        <v>1164</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>469</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>1184</v>
+        <v>1165</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -35266,7 +35285,7 @@
         <v>471</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>1185</v>
+        <v>1166</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -35349,22 +35368,22 @@
         <v>525</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1186</v>
+        <v>1167</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1188</v>
+        <v>1169</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1189</v>
+        <v>1170</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>482</v>
@@ -35373,7 +35392,7 @@
         <v>483</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>561</v>
@@ -35447,31 +35466,31 @@
         <v>525</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>485</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>1192</v>
+        <v>1173</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1194</v>
+        <v>1175</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>488</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>1196</v>
+        <v>1177</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="1"/>
@@ -35537,28 +35556,28 @@
         <v>525</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1197</v>
+        <v>1178</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>492</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1199</v>
+        <v>1180</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -35619,17 +35638,17 @@
         <v>525</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1204</v>
+        <v>1185</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>1205</v>
+        <v>1186</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="20" t="s">
-        <v>1207</v>
+        <v>1188</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -35693,16 +35712,16 @@
         <v>525</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1208</v>
+        <v>1189</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="20" t="s">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>1210</v>
+        <v>1191</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -35773,7 +35792,7 @@
         <v>525</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1211</v>
+        <v>1192</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>499</v>
@@ -35845,30 +35864,30 @@
         <v>525</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1212</v>
+        <v>1193</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1213</v>
+        <v>1194</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="24" t="s">
-        <v>1214</v>
+        <v>1195</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1215</v>
+        <v>1196</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>1216</v>
+        <v>1197</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>1217</v>
+        <v>1198</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>1218</v>
+        <v>1199</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -35923,21 +35942,21 @@
         <v>525</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1220</v>
+        <v>1201</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1221</v>
+        <v>1202</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="24" t="s">
-        <v>1222</v>
+        <v>1203</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1223</v>
+        <v>1204</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>1224</v>
+        <v>1205</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -35964,7 +35983,7 @@
         <v>128</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1225</v>
+        <v>1206</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -35997,16 +36016,16 @@
         <v>525</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1226</v>
+        <v>1207</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="24" t="s">
-        <v>1222</v>
+        <v>1203</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -36034,7 +36053,7 @@
         <v>128</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -36067,13 +36086,13 @@
         <v>525</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="20" t="s">
-        <v>1229</v>
+        <v>1210</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -37054,19 +37073,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -37086,20 +37105,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -37121,20 +37140,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -37153,19 +37172,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -37231,10 +37250,10 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1230</v>
+        <v>1211</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1231</v>
+        <v>1212</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>510</v>
@@ -39046,19 +39065,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -39078,20 +39097,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -39113,20 +39132,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -39145,19 +39164,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -39221,16 +39240,16 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1232</v>
+        <v>1213</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -41036,19 +41055,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -41068,20 +41087,20 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41103,20 +41122,20 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41135,19 +41154,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -41215,16 +41234,16 @@
         <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1239</v>
+        <v>1220</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
